--- a/resources/parameter.xlsx
+++ b/resources/parameter.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="12825" windowHeight="2955" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="parameter" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="searchPara" sheetId="1" r:id="rId1"/>
+    <sheet name="loginNeg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>search Text</t>
   </si>
@@ -29,16 +29,40 @@
     <t xml:space="preserve">     '</t>
   </si>
   <si>
-    <t>sheet 1-1sheet1-2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fdgrggggggggg@gffgfgfsfgh</t>
+  </si>
+  <si>
+    <t>dsfs fdsf</t>
+  </si>
+  <si>
+    <t>aaa@aaa.com</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>12@12.com</t>
+  </si>
+  <si>
+    <t>qqqqqqqq</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>天空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
   </si>
 </sst>
 </file>
@@ -46,60 +70,104 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -107,99 +175,61 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -213,49 +243,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,133 +405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,22 +437,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,16 +509,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -498,9 +526,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,206 +539,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -979,11 +1021,11 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1014,44 +1056,80 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="21.4285714285714" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12333</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="12@12.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/resources/parameter.xlsx
+++ b/resources/parameter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12825" windowHeight="2955" activeTab="1"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="searchPara" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>search Text</t>
+  </si>
+  <si>
+    <t>qq</t>
   </si>
   <si>
     <t>guy concordia</t>
@@ -70,16 +73,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -93,43 +96,88 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -137,99 +185,54 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -243,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,35 +440,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,17 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +505,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -539,148 +542,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,55 +705,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1019,31 +1022,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
@@ -1058,52 +1076,52 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.425" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>12333</v>
@@ -1114,13 +1132,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>123456</v>
